--- a/数据字典/中医院不良事件的数据字典2.xlsx
+++ b/数据字典/中医院不良事件的数据字典2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="24000" windowHeight="9765" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gwn_adverse_event" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="222">
   <si>
     <t xml:space="preserve">     id </t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>事件原因分析描述</t>
+  </si>
+  <si>
+    <t>udi</t>
   </si>
   <si>
     <t>简要事情的经过及结果(器械耗材使用预期治疗疾病或作用)</t>
@@ -690,10 +693,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -704,39 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,22 +721,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,9 +737,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,9 +791,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,24 +843,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +860,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +902,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,79 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,37 +968,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1010,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,45 +1054,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1101,6 +1065,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1121,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1156,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,133 +1171,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2460,8 +2463,8 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2701,7 +2704,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
         <v>178</v>
@@ -2789,7 +2792,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2813,7 +2816,7 @@
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2895,7 +2898,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
         <v>133</v>
@@ -3047,10 +3050,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3058,7 +3061,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3090,7 +3093,7 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" ht="28" customHeight="1" spans="1:2">
@@ -3098,15 +3101,15 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3114,47 +3117,47 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3172,7 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3360,7 +3363,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3368,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3376,7 +3379,7 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3469,10 +3472,10 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3688,7 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3788,7 +3791,7 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:B60"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4335,10 +4338,10 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4463,7 +4466,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4471,7 +4474,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4479,7 +4482,7 @@
         <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:2">
